--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_7_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_7_8.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_24</t>
+          <t>model_7_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9996272821944681</v>
+        <v>0.9999723832122791</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9989398744896691</v>
+        <v>0.9991618966654252</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9997571194646969</v>
+        <v>0.9999862308014291</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9981857489616717</v>
+        <v>0.9999934918941547</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9993268451027545</v>
+        <v>0.9999900301926876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003479157110432299</v>
+        <v>2.577905910052814e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009895806297621551</v>
+        <v>0.0007823326743410081</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00013020307472358</v>
+        <v>1.025106509517016e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003838758354458643</v>
+        <v>4.565881948434476e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002570394550847222</v>
+        <v>7.408473521802319e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002193404955454209</v>
+        <v>0.0004250869200959703</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01865249878818465</v>
+        <v>0.0050773082534477</v>
       </c>
       <c r="N2" t="n">
-        <v>1.008945227332767</v>
+        <v>1.000662802905302</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0194465742775931</v>
+        <v>0.005293459777273984</v>
       </c>
       <c r="P2" t="n">
-        <v>65.92710063434637</v>
+        <v>71.13189611676701</v>
       </c>
       <c r="Q2" t="n">
-        <v>96.39899625605139</v>
+        <v>101.603791738472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_23</t>
+          <t>model_7_8_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9996199517901997</v>
+        <v>0.9999727703886873</v>
       </c>
       <c r="C3" t="n">
-        <v>0.998934263418306</v>
+        <v>0.9991600758035054</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9997470583749091</v>
+        <v>0.9999858859843457</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9981681230463937</v>
+        <v>0.9999929874613189</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9993148991077245</v>
+        <v>0.999989619335902</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003547583216602306</v>
+        <v>2.541764691863503e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009948183185819542</v>
+        <v>0.0007840323690165274</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001355966103719159</v>
+        <v>1.05077788283833e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0003876052878809914</v>
+        <v>4.919776128004321e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002616009491264537</v>
+        <v>7.713777478193808e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00221527068692508</v>
+        <v>0.0004232072815634344</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01883502911227457</v>
+        <v>0.005041591704872086</v>
       </c>
       <c r="N3" t="n">
-        <v>1.009121157035207</v>
+        <v>1.000653510671506</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01963687529546939</v>
+        <v>0.005256222701282058</v>
       </c>
       <c r="P3" t="n">
-        <v>65.88814756876648</v>
+        <v>71.160133729196</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.3600431904715</v>
+        <v>101.632029350901</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_22</t>
+          <t>model_7_8_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9996124772764577</v>
+        <v>0.9999731457165518</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9989285348391799</v>
+        <v>0.9991582728971566</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9997367057037185</v>
+        <v>0.9999855561654608</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9981505284959306</v>
+        <v>0.9999924854207927</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9993027571235914</v>
+        <v>0.999989217121676</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003617354521451166</v>
+        <v>2.506729483201775e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001000165695740685</v>
+        <v>0.0007857153029546566</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001411464565912957</v>
+        <v>1.075332651516965e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003913281038615962</v>
+        <v>5.271991938618299e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0002662372802264459</v>
+        <v>8.012659226893972e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002237306902451444</v>
+        <v>0.0004212149746786611</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01901934415654537</v>
+        <v>0.005006724960692144</v>
       </c>
       <c r="N4" t="n">
-        <v>1.009300545365014</v>
+        <v>1.000644502802756</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01982903701275954</v>
+        <v>0.005219871607618266</v>
       </c>
       <c r="P4" t="n">
-        <v>65.84919481695741</v>
+        <v>71.18789311240528</v>
       </c>
       <c r="Q4" t="n">
-        <v>96.32109043866242</v>
+        <v>101.6597887341103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_21</t>
+          <t>model_7_8_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9996048555291479</v>
+        <v>0.9999735551979492</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9989226796803953</v>
+        <v>0.9991566317110899</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9997260573519819</v>
+        <v>0.9999853716061179</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9981328614256559</v>
+        <v>0.9999921164171337</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9992903874903197</v>
+        <v>0.9999889504757238</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003688500187028311</v>
+        <v>2.46850619217684e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001005631229454322</v>
+        <v>0.0007872472781082162</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000146854810845002</v>
+        <v>1.089072956219088e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0003950662642474846</v>
+        <v>5.530873276113434e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002709605375462433</v>
+        <v>8.210801419152159e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002259521842475745</v>
+        <v>0.0004188846335065508</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01920546845830195</v>
+        <v>0.004968406376472077</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00948346730045</v>
+        <v>1.00063467524922</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02002308501137231</v>
+        <v>0.005179921721937547</v>
       </c>
       <c r="P5" t="n">
-        <v>65.81024089985635</v>
+        <v>71.21862455555808</v>
       </c>
       <c r="Q5" t="n">
-        <v>96.28213652156137</v>
+        <v>101.6905201772631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_20</t>
+          <t>model_7_8_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9995970559215209</v>
+        <v>0.9999739183737437</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9989166346363013</v>
+        <v>0.9991548839939425</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9997149389590486</v>
+        <v>0.9999850754763696</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9981147976801439</v>
+        <v>0.9999916259508911</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999277578001824</v>
+        <v>0.9999885706016045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003761306100594024</v>
+        <v>2.434605325916942e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001011274012769266</v>
+        <v>0.0007888786953494348</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000152815144159103</v>
+        <v>1.1111195939414e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0003988883568097839</v>
+        <v>5.874968934129748e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0002758517504844434</v>
+        <v>8.493082436771873e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002282002436568455</v>
+        <v>0.0004170537796420377</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01939408698700205</v>
+        <v>0.004934171993269937</v>
       </c>
       <c r="N6" t="n">
-        <v>1.009670657883498</v>
+        <v>1.000625959030151</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02021973342133336</v>
+        <v>0.005144229910167547</v>
       </c>
       <c r="P6" t="n">
-        <v>65.77114821542625</v>
+        <v>71.24628161077004</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.24304383713127</v>
+        <v>101.7181772324751</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_19</t>
+          <t>model_7_8_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9995891038909891</v>
+        <v>0.9999742530044686</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989104761037664</v>
+        <v>0.9991530519091543</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9997035380177161</v>
+        <v>0.9999847030832116</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9980967871355153</v>
+        <v>0.9999910333138435</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9992645849150208</v>
+        <v>0.9999881042930089</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003835534815070096</v>
+        <v>2.403369016608381e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001017022732562341</v>
+        <v>0.000790588866079955</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001589269456436439</v>
+        <v>1.13884398532935e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0004026991926423482</v>
+        <v>6.290744408801756e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0002808130691429961</v>
+        <v>8.839592131047626e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002304669624306074</v>
+        <v>0.0004155433056565937</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01958452147761108</v>
+        <v>0.004902416767889467</v>
       </c>
       <c r="N7" t="n">
-        <v>1.009861506616262</v>
+        <v>1.000617927892753</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02041827510246135</v>
+        <v>0.005111122799100252</v>
       </c>
       <c r="P7" t="n">
-        <v>65.73206298107695</v>
+        <v>71.27210791008366</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.20395860278197</v>
+        <v>101.7440035317887</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_18</t>
+          <t>model_7_8_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.99958100195032</v>
+        <v>0.9999746175690037</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9989042040074464</v>
+        <v>0.9991513861881379</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9996918734225578</v>
+        <v>0.9999844622547908</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9980787766806943</v>
+        <v>0.9999905819870901</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9992514067780698</v>
+        <v>0.9999877705979316</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003911162874875696</v>
+        <v>2.369338517501384e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00102287745916385</v>
+        <v>0.0007921437435320141</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001651800863208796</v>
+        <v>1.156773480695227e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0004065100094725845</v>
+        <v>6.607381034785948e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000285845047896732</v>
+        <v>9.087557920869107e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002327501854562954</v>
+        <v>0.0004134273394808527</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01977666017019986</v>
+        <v>0.004867585148203762</v>
       </c>
       <c r="N8" t="n">
-        <v>1.010055953192321</v>
+        <v>1.00060917834391</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02061859353697556</v>
+        <v>0.005074808325253134</v>
       </c>
       <c r="P8" t="n">
-        <v>65.69301126348498</v>
+        <v>71.30062931064033</v>
       </c>
       <c r="Q8" t="n">
-        <v>96.16490688518999</v>
+        <v>101.7725249323453</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_17</t>
+          <t>model_7_8_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9995727281125172</v>
+        <v>0.9999749503438687</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9988977666996508</v>
+        <v>0.9991496478550679</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9996798042655255</v>
+        <v>0.9999841665991873</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9980605485420753</v>
+        <v>0.9999900582530484</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9992378843418218</v>
+        <v>0.999987375256902</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0003988395518969342</v>
+        <v>2.338275444567299e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001028886403425829</v>
+        <v>0.0007937664011489515</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001716501039901284</v>
+        <v>1.178784818686973e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0004103668858326875</v>
+        <v>6.974816332216065e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>0.000291008494911408</v>
+        <v>9.381332259542894e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002350572710693972</v>
+        <v>0.0004116266700611859</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01997096772559943</v>
+        <v>0.004835571780634943</v>
       </c>
       <c r="N9" t="n">
-        <v>1.010254525299588</v>
+        <v>1.00060119174715</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02082117316728059</v>
+        <v>0.005041432082350104</v>
       </c>
       <c r="P9" t="n">
-        <v>65.65390269504034</v>
+        <v>71.32702359362409</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.12579831674536</v>
+        <v>101.7989192153291</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_16</t>
+          <t>model_7_8_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9995643134126687</v>
+        <v>0.9999752954030187</v>
       </c>
       <c r="C10" t="n">
-        <v>0.998891246993023</v>
+        <v>0.9991480254091729</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9996675223566346</v>
+        <v>0.9999839366011229</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9980426246232985</v>
+        <v>0.9999896078177435</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9992242968498811</v>
+        <v>0.9999870474080347</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0004066943048428299</v>
+        <v>2.306065687558248e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001034972263380879</v>
+        <v>0.0007952808831747787</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001782341733931328</v>
+        <v>1.195908002129847e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0004141593925748954</v>
+        <v>7.290827545977088e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0002961967829840141</v>
+        <v>9.624953783637781e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002373758879216065</v>
+        <v>0.0004095258290455204</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02016666320546932</v>
+        <v>0.00480215127579114</v>
       </c>
       <c r="N10" t="n">
-        <v>1.010456478095951</v>
+        <v>1.000592910327552</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02102519980887402</v>
+        <v>0.005006588797425118</v>
       </c>
       <c r="P10" t="n">
-        <v>65.61489749697235</v>
+        <v>71.35476511606225</v>
       </c>
       <c r="Q10" t="n">
-        <v>96.08679311867736</v>
+        <v>101.8266607377673</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_15</t>
+          <t>model_7_8_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9995557264383257</v>
+        <v>0.9999756154082622</v>
       </c>
       <c r="C11" t="n">
-        <v>0.998884585308884</v>
+        <v>0.9991462912364861</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9996549076410587</v>
+        <v>0.9999836290964398</v>
       </c>
       <c r="E11" t="n">
-        <v>0.998024537466476</v>
+        <v>0.9999890534686126</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9992104305129832</v>
+        <v>0.9999866316791017</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0004147098684674864</v>
+        <v>2.276194602739966e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001041190653110437</v>
+        <v>0.000796899657256508</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001849966533617152</v>
+        <v>1.218801495222169e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.000417986438716468</v>
+        <v>7.679741425065327e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0003014915460390916</v>
+        <v>9.933878188643505e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002397150819341497</v>
+        <v>0.0004077484283670061</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02036442654403719</v>
+        <v>0.004770948126672482</v>
       </c>
       <c r="N11" t="n">
-        <v>1.010662565480184</v>
+        <v>1.000585230201708</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02123138234219127</v>
+        <v>0.004974057265649055</v>
       </c>
       <c r="P11" t="n">
-        <v>65.5758627887059</v>
+        <v>71.3808409005573</v>
       </c>
       <c r="Q11" t="n">
-        <v>96.04775841041092</v>
+        <v>101.8527365222623</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_14</t>
+          <t>model_7_8_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9995469723944428</v>
+        <v>0.9999759088336957</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9988777868059276</v>
+        <v>0.9991445092380485</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9996419644361471</v>
+        <v>0.9999832787767361</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9980064587809934</v>
+        <v>0.9999884575791548</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9991963359360707</v>
+        <v>0.9999861748927138</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0004228813841739909</v>
+        <v>2.248804626506574e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001047536757200417</v>
+        <v>0.0007985630745772969</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000191935229457025</v>
+        <v>1.24488253449437e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0004218116924144277</v>
+        <v>8.097798688319458e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0003068734609357263</v>
+        <v>1.027331201663158e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002420744502461796</v>
+        <v>0.000406114459326813</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02056407994961094</v>
+        <v>0.004742156288553314</v>
       </c>
       <c r="N12" t="n">
-        <v>1.010872662533373</v>
+        <v>1.000578187991303</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02143953540657983</v>
+        <v>0.004944039699373833</v>
       </c>
       <c r="P12" t="n">
-        <v>65.53683766781229</v>
+        <v>71.40505333407955</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.00873328951731</v>
+        <v>101.8769489557846</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_13</t>
+          <t>model_7_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9995380341923696</v>
+        <v>0.9999762145896743</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9988708198488956</v>
+        <v>0.999142875268255</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9996286026713945</v>
+        <v>0.9999830132665366</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9979883225255892</v>
+        <v>0.9999879381910557</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9991819315954567</v>
+        <v>0.999985796704365</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0004312248034675999</v>
+        <v>2.220263648012076e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001054040105775829</v>
+        <v>0.0008000883136565682</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001990981865558609</v>
+        <v>1.26464956977221e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0004256491272831664</v>
+        <v>8.462185009367143e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0003123736569195137</v>
+        <v>1.055434035354462e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002444555373999667</v>
+        <v>0.0004041894128745423</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02076595298722406</v>
+        <v>0.004711967368320876</v>
       </c>
       <c r="N13" t="n">
-        <v>1.011087179383129</v>
+        <v>1.000570849847816</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02165000259733893</v>
+        <v>0.004912565574307421</v>
       </c>
       <c r="P13" t="n">
-        <v>65.49776203613482</v>
+        <v>71.43059903154338</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.96965765783983</v>
+        <v>101.9024946532484</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9995289541180681</v>
+        <v>0.9999765053274168</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9988637699396989</v>
+        <v>0.9991412198710532</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9996150638112291</v>
+        <v>0.9999827295410745</v>
       </c>
       <c r="E14" t="n">
-        <v>0.997970492422196</v>
+        <v>0.9999874174778277</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9991674877639609</v>
+        <v>0.9999854087656652</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0004397006542589186</v>
+        <v>2.193124555946635e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001060620886555681</v>
+        <v>0.0008016335542809082</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002063560807283573</v>
+        <v>1.285772717686049e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0004294217837080813</v>
+        <v>8.82750099903028e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0003178889322182193</v>
+        <v>1.084261408794538e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00246846759163357</v>
+        <v>0.000402333026848883</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02096904037525129</v>
+        <v>0.004683080776525892</v>
       </c>
       <c r="N14" t="n">
-        <v>1.011305101166366</v>
+        <v>1.000563872141997</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02186173583592333</v>
+        <v>0.004882449220496235</v>
       </c>
       <c r="P14" t="n">
-        <v>65.458832787624</v>
+        <v>71.45519640018016</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.93072840932902</v>
+        <v>101.9270920218852</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_11</t>
+          <t>model_7_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9995196741553267</v>
+        <v>0.9999767769232234</v>
       </c>
       <c r="C15" t="n">
-        <v>0.998856548808059</v>
+        <v>0.9991394573841467</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9996011072899278</v>
+        <v>0.9999824046523742</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9979523647059292</v>
+        <v>0.9999868368889731</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9991526682925874</v>
+        <v>0.9999849719415798</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0004483630921346596</v>
+        <v>2.167772279575082e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001067361495970557</v>
+        <v>0.0008032787584438667</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0002138378741277696</v>
+        <v>1.309960437824853e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0004332574117880093</v>
+        <v>9.234823841357159e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0003235476429578894</v>
+        <v>1.116721410980284e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002492651686556515</v>
+        <v>0.0004005860256662409</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02117458599677121</v>
+        <v>0.004655934148562544</v>
       </c>
       <c r="N15" t="n">
-        <v>1.011527820272159</v>
+        <v>1.000557353842638</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02207603196008945</v>
+        <v>0.004854146904379221</v>
       </c>
       <c r="P15" t="n">
-        <v>65.41981436058147</v>
+        <v>71.47845084801195</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.89170998228649</v>
+        <v>101.950346469717</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_10</t>
+          <t>model_7_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.999510205313085</v>
+        <v>0.9999770384136597</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9988491587947488</v>
+        <v>0.9991377167790277</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9995867267822348</v>
+        <v>0.9999820714408678</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9979342673737431</v>
+        <v>0.9999862279301823</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9991375596170831</v>
+        <v>0.9999845175559023</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0004572018407331836</v>
+        <v>2.143363295149684e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001074259749011486</v>
+        <v>0.0008049035369187279</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0002215469575887603</v>
+        <v>1.334767784633815e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0004370866109261196</v>
+        <v>9.66205013671167e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00032931678425744</v>
+        <v>1.150486399152491e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002517048319702715</v>
+        <v>0.0003989250527247877</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0213822786609188</v>
+        <v>0.004629647173543232</v>
       </c>
       <c r="N16" t="n">
-        <v>1.01175507248596</v>
+        <v>1.000551078072167</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02229256653093288</v>
+        <v>0.004826740838411798</v>
       </c>
       <c r="P16" t="n">
-        <v>65.3807711999023</v>
+        <v>71.50109847282403</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.85266682160731</v>
+        <v>101.972994094529</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_9</t>
+          <t>model_7_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9995005563502942</v>
+        <v>0.9999773241507544</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9988416084472266</v>
+        <v>0.9991360797071605</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9995719637957264</v>
+        <v>0.9999818278559041</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9979161953898577</v>
+        <v>0.999985737904767</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9991221894789702</v>
+        <v>0.9999841642118256</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0004662087239578596</v>
+        <v>2.116690991610644e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001081307667001529</v>
+        <v>0.0008064316716476624</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0002294610797851202</v>
+        <v>1.352902502548946e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0004409104466388285</v>
+        <v>1.000583652418865e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003351857632119744</v>
+        <v>1.176743077483905e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002541634699369869</v>
+        <v>0.0003969051819820873</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02159186707901518</v>
+        <v>0.004600751016530501</v>
       </c>
       <c r="N17" t="n">
-        <v>1.011986647592939</v>
+        <v>1.000544220381895</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02251107756189546</v>
+        <v>0.004796614512171743</v>
       </c>
       <c r="P17" t="n">
-        <v>65.34175423725875</v>
+        <v>71.5261428974005</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.81364985896377</v>
+        <v>101.9980385191055</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_8</t>
+          <t>model_7_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9994907319884997</v>
+        <v>0.9999776282402318</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9988339384767652</v>
+        <v>0.9991345892559763</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9995569299118833</v>
+        <v>0.9999816827645821</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9978982657542393</v>
+        <v>0.9999853522775694</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9991066686206034</v>
+        <v>0.9999839094897806</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0004753793344534584</v>
+        <v>2.088305573683533e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001088467247754401</v>
+        <v>0.000807822942404763</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0002375204242647801</v>
+        <v>1.363704442677045e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0004447041630026794</v>
+        <v>1.027638041243066e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0003411122936337297</v>
+        <v>1.195671241960056e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002566391756502486</v>
+        <v>0.0003946471008163564</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02180319551014159</v>
+        <v>0.004569798216205539</v>
       </c>
       <c r="N18" t="n">
-        <v>1.012222432276007</v>
+        <v>1.000536922234436</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02273140268184509</v>
+        <v>0.004764343987055818</v>
       </c>
       <c r="P18" t="n">
-        <v>65.30279494758128</v>
+        <v>71.55314491621601</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.77469056928629</v>
+        <v>102.025040537921</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_7</t>
+          <t>model_7_8_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9994807036436772</v>
+        <v>0.999977907165659</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9988260861223298</v>
+        <v>0.999133019470263</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9995414268063731</v>
+        <v>0.9999814692942284</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9978804002105172</v>
+        <v>0.9999848656230943</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9990908361438406</v>
+        <v>0.9999835728226981</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0004847403541517198</v>
+        <v>2.062269109398802e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001095797075941316</v>
+        <v>0.0008092882684625327</v>
       </c>
       <c r="I19" t="n">
-        <v>0.000245831308472385</v>
+        <v>1.379597150449891e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0004484843182166849</v>
+        <v>1.061780185449825e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.000347157813344535</v>
+        <v>1.220688667949858e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002591367858214996</v>
+        <v>0.0003927710677410312</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02201681980104574</v>
+        <v>0.004541221321845921</v>
       </c>
       <c r="N19" t="n">
-        <v>1.012463112551746</v>
+        <v>1.000530228024183</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02295412140107627</v>
+        <v>0.004734550515140984</v>
       </c>
       <c r="P19" t="n">
-        <v>65.26379432528695</v>
+        <v>71.57823715793643</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.73568994699197</v>
+        <v>102.0501327796414</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_6</t>
+          <t>model_7_8_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9994705002459684</v>
+        <v>0.9999781742649095</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9988181159860315</v>
+        <v>0.9991314212214661</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9995256815386319</v>
+        <v>0.9999812325029398</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9978627329184188</v>
+        <v>0.9999843802619127</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9990748886065361</v>
+        <v>0.9999832250836687</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0004942647780355703</v>
+        <v>2.037336566794502e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001103236848327244</v>
+        <v>0.0008107801635594041</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0002542720106871762</v>
+        <v>1.39722608434513e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0004522225255380674</v>
+        <v>1.095831596258123e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0003532472681126219</v>
+        <v>1.246528840301627e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002616500547970595</v>
+        <v>0.0003909380054970199</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02223206643646898</v>
+        <v>0.004513686483124965</v>
       </c>
       <c r="N20" t="n">
-        <v>1.012707994096758</v>
+        <v>1.000523817642171</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02317853153139143</v>
+        <v>0.004705843461330703</v>
       </c>
       <c r="P20" t="n">
-        <v>65.22487839288064</v>
+        <v>71.6025642293415</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.69677401458566</v>
+        <v>102.0744598510465</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_5</t>
+          <t>model_7_8_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9994601025309447</v>
+        <v>0.9999784025219152</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9988100087013139</v>
+        <v>0.9991297529400969</v>
       </c>
       <c r="D21" t="n">
-        <v>0.999509609577005</v>
+        <v>0.9999809302624462</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9978451499716141</v>
+        <v>0.9999837939326115</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9990587351114247</v>
+        <v>0.9999827968952042</v>
       </c>
       <c r="G21" t="n">
-        <v>0.000503970588603129</v>
+        <v>2.016029777250029e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001110804642742471</v>
+        <v>0.000812337430988484</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0002628878465261558</v>
+        <v>1.419727662474217e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0004559428863104606</v>
+        <v>1.136966612129113e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0003594153664183082</v>
+        <v>1.278347137301664e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002641834419895566</v>
+        <v>0.0003894192005409889</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02244928926721577</v>
+        <v>0.004490022023609716</v>
       </c>
       <c r="N21" t="n">
-        <v>1.012957539257326</v>
+        <v>1.000518339474036</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02340500198775636</v>
+        <v>0.004681171556781705</v>
       </c>
       <c r="P21" t="n">
-        <v>65.18598529508371</v>
+        <v>71.62359068881773</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.65788091678873</v>
+        <v>102.0954863105227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_4</t>
+          <t>model_7_8_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9994495037337138</v>
+        <v>0.9999786532538614</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9988017215788777</v>
+        <v>0.999128182887578</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9994931000297916</v>
+        <v>0.9999807064567762</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9978276275517585</v>
+        <v>0.9999833158852546</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9990422912175363</v>
+        <v>0.9999824591138015</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0005138641005848552</v>
+        <v>1.992625050659375e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00111854030777406</v>
+        <v>0.0008138030060975714</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0002717382626650462</v>
+        <v>1.436389826796197e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0004596504402371167</v>
+        <v>1.170504908051201e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0003656943514510814</v>
+        <v>1.303447367423699e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002667368942599896</v>
+        <v>0.0003876084299058932</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02266857076625818</v>
+        <v>0.004463882895707923</v>
       </c>
       <c r="N22" t="n">
-        <v>1.013211910390869</v>
+        <v>1.000512321907327</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0236336187541883</v>
+        <v>0.004653919632089678</v>
       </c>
       <c r="P22" t="n">
-        <v>65.14710344643427</v>
+        <v>71.64694514915024</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.61899906813929</v>
+        <v>102.1188407708553</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_3</t>
+          <t>model_7_8_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9994387184933661</v>
+        <v>0.999978915032669</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9987933144736212</v>
+        <v>0.9991267178689412</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9994763518403943</v>
+        <v>0.9999805453227257</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9978102456575104</v>
+        <v>0.9999829161308157</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9990257187402999</v>
+        <v>0.9999821896863436</v>
       </c>
       <c r="G23" t="n">
-        <v>0.000523931649032079</v>
+        <v>1.968189148037786e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001126387971501649</v>
+        <v>0.0008151705366880369</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0002807166097889666</v>
+        <v>1.44838613603345e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0004633282604699036</v>
+        <v>1.198550419602112e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.000372022435129435</v>
+        <v>1.323468277817781e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00269307461697852</v>
+        <v>0.0003855785533457737</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02288955327288147</v>
+        <v>0.004436427783744244</v>
       </c>
       <c r="N23" t="n">
-        <v>1.013470756159214</v>
+        <v>1.000506039215944</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02386400894361539</v>
+        <v>0.004625295699169789</v>
       </c>
       <c r="P23" t="n">
-        <v>65.10829864585969</v>
+        <v>71.67162311830158</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.58019426756471</v>
+        <v>102.1435187400066</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_2</t>
+          <t>model_7_8_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9994277239741658</v>
+        <v>0.9999791539028422</v>
       </c>
       <c r="C24" t="n">
-        <v>0.998784729527614</v>
+        <v>0.9991251905693506</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9994591646029541</v>
+        <v>0.9999803259642314</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9977931796282244</v>
+        <v>0.9999824540474294</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999008925582427</v>
+        <v>0.9999818616686902</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00053419455010195</v>
+        <v>1.945891665893284e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001134401641763802</v>
+        <v>0.0008165962038152515</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0002899303212043741</v>
+        <v>1.464717211468465e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0004669392471037657</v>
+        <v>1.230968733660389e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0003784347841540699</v>
+        <v>1.347842972564427e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002718971813290303</v>
+        <v>0.0003837289774827193</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02311264913639174</v>
+        <v>0.004411226208089179</v>
       </c>
       <c r="N24" t="n">
-        <v>1.013734624620021</v>
+        <v>1.000500306331787</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0240966024599074</v>
+        <v>0.004599021240264635</v>
       </c>
       <c r="P24" t="n">
-        <v>65.06950091864216</v>
+        <v>71.69441030580678</v>
       </c>
       <c r="Q24" t="n">
-        <v>95.54139654034718</v>
+        <v>102.1663059275118</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_1</t>
+          <t>model_7_8_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.999416514023292</v>
+        <v>0.9999793778651598</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9987759732870126</v>
+        <v>0.999123606942432</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9994415836917302</v>
+        <v>0.999980071814795</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9977760054334135</v>
+        <v>0.9999819522043149</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9989918261117525</v>
+        <v>0.9999814974537395</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0005446585471826772</v>
+        <v>1.924985766628772e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001142575208010665</v>
+        <v>0.0008180744500306005</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0002993550727389084</v>
+        <v>1.483638446448569e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000470573120389167</v>
+        <v>1.266176464937811e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0003849640965640377</v>
+        <v>1.37490745569319e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002745109302544661</v>
+        <v>0.0003820173703009084</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02333792079819188</v>
+        <v>0.004387465973234177</v>
       </c>
       <c r="N25" t="n">
-        <v>1.014003663440992</v>
+        <v>1.000494931236165</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02433146440272699</v>
+        <v>0.004574249483021387</v>
       </c>
       <c r="P25" t="n">
-        <v>65.03070295715379</v>
+        <v>71.71601378243379</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.50259857885881</v>
+        <v>102.1879094041388</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_0</t>
+          <t>model_7_8_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9994050864933931</v>
+        <v>0.9999795614822132</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9987670453380671</v>
+        <v>0.9991218408518595</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9994235972852719</v>
+        <v>0.9999797019548955</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9977589976347544</v>
+        <v>0.9999813083238983</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9989744881009612</v>
+        <v>0.999981008224167</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0005553256447326533</v>
+        <v>1.90784592066905e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001150909056459655</v>
+        <v>0.0008197230180575963</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0003089972016199795</v>
+        <v>1.511174238644775e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0004741717860541803</v>
+        <v>1.311349085676062e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0003915844938370798</v>
+        <v>1.411261662160418e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002771443145295595</v>
+        <v>0.0003808118670499384</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02356534838980008</v>
+        <v>0.004367889559809233</v>
       </c>
       <c r="N26" t="n">
-        <v>1.014277924158566</v>
+        <v>1.000490524426882</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02456857405774997</v>
+        <v>0.004553839661148183</v>
       </c>
       <c r="P26" t="n">
-        <v>64.99191173804134</v>
+        <v>71.73390129914253</v>
       </c>
       <c r="Q26" t="n">
-        <v>95.46380735974635</v>
+        <v>102.2057969208475</v>
       </c>
     </row>
   </sheetData>
